--- a/data/temperature_cooling.xlsx
+++ b/data/temperature_cooling.xlsx
@@ -847,13 +847,13 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B91" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H103" activeCellId="0" sqref="H103"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
